--- a/2020-2021/CSC4990 Data Entry_Oral Com-Undergraduate.xlsx
+++ b/2020-2021/CSC4990 Data Entry_Oral Com-Undergraduate.xlsx
@@ -514,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1102,6 +1102,20 @@
         <v>3.7333333333333334</v>
       </c>
     </row>
+    <row r="33" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E33">
+        <f>5*0.89</f>
+        <v>4.45</v>
+      </c>
+      <c r="F33">
+        <f>5*0.915</f>
+        <v>4.5750000000000002</v>
+      </c>
+      <c r="G33">
+        <f>5*0.93</f>
+        <v>4.6500000000000004</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
